--- a/Documentation/LoginAndRegistration.xlsx
+++ b/Documentation/LoginAndRegistration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GKCT_WORK\transportmanagement\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GKCT_WORK002\transportmanagement\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419F3D40-FB8A-423F-9188-4175626ABF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEA47DE-4349-4EE1-A3B0-A04C51D3E2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>Serial No.</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>Password changed successfully &amp; it will redirect to login page</t>
+  </si>
+  <si>
+    <t>Developed By</t>
+  </si>
+  <si>
+    <t>Backend Work</t>
+  </si>
+  <si>
+    <t>Implemented Swagger</t>
+  </si>
+  <si>
+    <t>It will give a frontend Ui for testing backend app</t>
+  </si>
+  <si>
+    <t>Implemented OTP(Twilio)</t>
+  </si>
+  <si>
+    <t>It will generate OTP through API</t>
+  </si>
+  <si>
+    <t>Santadeepa Mallik</t>
+  </si>
+  <si>
+    <t>Vibek Jena</t>
   </si>
 </sst>
 </file>
@@ -238,12 +262,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,9 +559,10 @@
     <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -551,8 +575,11 @@
       <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -560,7 +587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>34</v>
       </c>
@@ -570,8 +597,11 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -581,8 +611,11 @@
       <c r="D4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -592,13 +625,16 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -608,8 +644,11 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -619,8 +658,11 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -630,8 +672,11 @@
       <c r="D10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -641,8 +686,11 @@
       <c r="D11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -652,14 +700,17 @@
       <c r="D12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
@@ -668,8 +719,11 @@
       <c r="D15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -679,8 +733,11 @@
       <c r="D16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -690,8 +747,11 @@
       <c r="D17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>49</v>
       </c>
@@ -701,8 +761,11 @@
       <c r="D18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>50</v>
       </c>
@@ -712,8 +775,11 @@
       <c r="D19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -726,8 +792,11 @@
       <c r="D21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -737,8 +806,11 @@
       <c r="D22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -748,8 +820,11 @@
       <c r="D23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -759,13 +834,16 @@
       <c r="D24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
@@ -775,8 +853,11 @@
       <c r="D27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -786,8 +867,11 @@
       <c r="D28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -797,8 +881,11 @@
       <c r="D29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -808,10 +895,49 @@
       <c r="D30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
